--- a/Other/projected_win_loss_by_team.xlsx
+++ b/Other/projected_win_loss_by_team.xlsx
@@ -520,7 +520,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>13.3 - 16.7</t>
+          <t>13.0 - 17.0</t>
         </is>
       </c>
     </row>
@@ -544,7 +544,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>14.6 - 15.4</t>
+          <t>15.0 - 15.0</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>11.6 - 15.4</t>
+          <t>12.0 - 15.0</t>
         </is>
       </c>
     </row>
@@ -592,7 +592,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>13.6 - 13.4</t>
+          <t>14.0 - 13.0</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.9 - 14.1</t>
+          <t>10.0 - 14.0</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>12.5 - 11.5</t>
+          <t>13.0 - 11.0</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>15.8 - 14.2</t>
+          <t>16.0 - 14.0</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>13.8 - 13.2</t>
+          <t>14.0 - 13.0</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>15.8 - 11.2</t>
+          <t>16.0 - 11.0</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11.8 - 12.2</t>
+          <t>12.0 - 12.0</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>14.6 - 9.4</t>
+          <t>15.0 - 9.0</t>
         </is>
       </c>
     </row>
@@ -958,7 +958,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>17.4 - 12.6</t>
+          <t>17.0 - 13.0</t>
         </is>
       </c>
     </row>
@@ -982,7 +982,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>18.6 - 11.4</t>
+          <t>19.0 - 11.0</t>
         </is>
       </c>
     </row>
@@ -1006,7 +1006,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>15.3 - 11.7</t>
+          <t>15.0 - 12.0</t>
         </is>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>17.2 - 9.8</t>
+          <t>17.0 - 10.0</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>13.2 - 10.8</t>
+          <t>13.0 - 11.0</t>
         </is>
       </c>
     </row>
@@ -1078,7 +1078,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>15.6 - 8.4</t>
+          <t>16.0 - 8.0</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>13.5 - 16.5</t>
+          <t>14.0 - 16.0</t>
         </is>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>14.8 - 15.2</t>
+          <t>15.0 - 15.0</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>11.7 - 15.3</t>
+          <t>12.0 - 15.0</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>13.7 - 13.3</t>
+          <t>14.0 - 13.0</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>12.7 - 11.3</t>
+          <t>13.0 - 11.0</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>17.5 - 12.5</t>
+          <t>18.0 - 12.0</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>18.7 - 11.3</t>
+          <t>19.0 - 11.0</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>15.4 - 11.6</t>
+          <t>15.0 - 12.0</t>
         </is>
       </c>
     </row>
@@ -1468,7 +1468,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>17.3 - 9.7</t>
+          <t>17.0 - 10.0</t>
         </is>
       </c>
     </row>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>13.3 - 10.7</t>
+          <t>13.0 - 11.0</t>
         </is>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>15.7 - 8.3</t>
+          <t>16.0 - 8.0</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>10.1 - 19.9</t>
+          <t>10.0 - 20.0</t>
         </is>
       </c>
     </row>
@@ -1663,7 +1663,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.7 - 19.3</t>
+          <t>8.0 - 19.0</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.4 - 17.6</t>
+          <t>9.0 - 18.0</t>
         </is>
       </c>
     </row>
@@ -1711,7 +1711,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>6.6 - 17.4</t>
+          <t>7.0 - 17.0</t>
         </is>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8.7 - 15.3</t>
+          <t>9.0 - 15.0</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>13.4 - 16.6</t>
+          <t>13.0 - 17.0</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>14.6 - 15.4</t>
+          <t>15.0 - 15.0</t>
         </is>
       </c>
     </row>
@@ -1882,7 +1882,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>11.6 - 15.4</t>
+          <t>12.0 - 15.0</t>
         </is>
       </c>
     </row>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>13.6 - 13.4</t>
+          <t>14.0 - 13.0</t>
         </is>
       </c>
     </row>
@@ -1930,7 +1930,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.9 - 14.1</t>
+          <t>10.0 - 14.0</t>
         </is>
       </c>
     </row>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>12.6 - 11.4</t>
+          <t>13.0 - 11.0</t>
         </is>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10.4 - 19.6</t>
+          <t>10.0 - 20.0</t>
         </is>
       </c>
     </row>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>11.7 - 18.3</t>
+          <t>12.0 - 18.0</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.9 - 18.1</t>
+          <t>9.0 - 18.0</t>
         </is>
       </c>
     </row>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>10.9 - 16.1</t>
+          <t>11.0 - 16.0</t>
         </is>
       </c>
     </row>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7.5 - 16.5</t>
+          <t>8.0 - 16.0</t>
         </is>
       </c>
     </row>
@@ -2173,7 +2173,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10.1 - 13.9</t>
+          <t>10.0 - 14.0</t>
         </is>
       </c>
     </row>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>11.2 - 18.8</t>
+          <t>11.0 - 19.0</t>
         </is>
       </c>
     </row>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>12.4 - 17.6</t>
+          <t>12.0 - 18.0</t>
         </is>
       </c>
     </row>
@@ -2320,7 +2320,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9.6 - 17.4</t>
+          <t>10.0 - 17.0</t>
         </is>
       </c>
     </row>
@@ -2344,7 +2344,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>11.6 - 15.4</t>
+          <t>12.0 - 15.0</t>
         </is>
       </c>
     </row>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.1 - 15.9</t>
+          <t>8.0 - 16.0</t>
         </is>
       </c>
     </row>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>10.7 - 13.3</t>
+          <t>11.0 - 13.0</t>
         </is>
       </c>
     </row>
@@ -2491,7 +2491,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>13.2 - 16.8</t>
+          <t>13.0 - 17.0</t>
         </is>
       </c>
     </row>
@@ -2515,7 +2515,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>14.4 - 15.6</t>
+          <t>14.0 - 16.0</t>
         </is>
       </c>
     </row>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>11.4 - 15.6</t>
+          <t>11.0 - 16.0</t>
         </is>
       </c>
     </row>
@@ -2563,7 +2563,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>13.4 - 13.6</t>
+          <t>13.0 - 14.0</t>
         </is>
       </c>
     </row>
@@ -2587,7 +2587,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>9.8 - 14.2</t>
+          <t>10.0 - 14.0</t>
         </is>
       </c>
     </row>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>12.4 - 11.6</t>
+          <t>12.0 - 12.0</t>
         </is>
       </c>
     </row>
@@ -2710,7 +2710,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>18.8 - 11.2</t>
+          <t>19.0 - 11.0</t>
         </is>
       </c>
     </row>
@@ -2734,7 +2734,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>19.9 - 10.1</t>
+          <t>20.0 - 10.0</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>16.6 - 10.4</t>
+          <t>17.0 - 10.0</t>
         </is>
       </c>
     </row>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>18.4 - 8.6</t>
+          <t>18.0 - 9.0</t>
         </is>
       </c>
     </row>
@@ -2806,7 +2806,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>14.3 - 9.7</t>
+          <t>14.0 - 10.0</t>
         </is>
       </c>
     </row>
@@ -2830,7 +2830,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>16.7 - 7.3</t>
+          <t>17.0 - 7.0</t>
         </is>
       </c>
     </row>
@@ -2929,7 +2929,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.1 - 23.9</t>
+          <t>6.0 - 24.0</t>
         </is>
       </c>
     </row>
@@ -2953,7 +2953,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.8 - 23.2</t>
+          <t>7.0 - 23.0</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.2 - 21.8</t>
+          <t>5.0 - 22.0</t>
         </is>
       </c>
     </row>
@@ -3001,7 +3001,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>6.4 - 20.6</t>
+          <t>6.0 - 21.0</t>
         </is>
       </c>
     </row>
@@ -3025,7 +3025,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.4 - 19.6</t>
+          <t>4.0 - 20.0</t>
         </is>
       </c>
     </row>
